--- a/bulkShorts_input.xlsx
+++ b/bulkShorts_input.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="86">
   <si>
     <t>title</t>
   </si>
@@ -55,70 +55,223 @@
     <t>ctaText</t>
   </si>
   <si>
-    <t>Inspirational Quote</t>
-  </si>
-  <si>
-    <t>Believe you can ^ and you're halfway there. 🚀</t>
-  </si>
-  <si>
-    <t>Success is not final, ^ failure is not fatal: ^ it is the courage to continue that counts. 🏆</t>
-  </si>
-  <si>
-    <t>The only way to do great work ^ is to love what you do. ❤️</t>
-  </si>
-  <si>
-    <t>It always seems impossible ^ until it's done. 🎯</t>
-  </si>
-  <si>
-    <t>Don’t watch the clock; ^ do what it does. ^ Keep going. ⏰</t>
-  </si>
-  <si>
-    <t>Dream big. ^ Start small. ^ Act now. 🚀</t>
-  </si>
-  <si>
-    <t>Hardships often prepare ^ ordinary people ^ for extraordinary destiny. ✨</t>
-  </si>
-  <si>
-    <t>The future belongs to those ^ who believe in the beauty of their dreams. 🌟</t>
-  </si>
-  <si>
-    <t>Your limitation— ^ it's only your imagination. 🎯</t>
-  </si>
-  <si>
-    <t>You are capable of amazing things! ✨</t>
-  </si>
-  <si>
-    <t>Keep moving forward! 🔥</t>
-  </si>
-  <si>
-    <t>Passion powers success! ✨</t>
-  </si>
-  <si>
-    <t>Break your limits! 🔥</t>
-  </si>
-  <si>
-    <t>Your time is now! 🌟</t>
-  </si>
-  <si>
-    <t>Stay inspired! ✨</t>
-  </si>
-  <si>
-    <t>Follow for daily motivation! 💬</t>
-  </si>
-  <si>
-    <t>Subscribe for more! 🚀</t>
-  </si>
-  <si>
-    <t>More wisdom awaits! 💬</t>
-  </si>
-  <si>
-    <t>Keep growing! 🚀</t>
-  </si>
-  <si>
-    <t>Join us for more! 💬</t>
-  </si>
-  <si>
-    <t>Follow us for more! 🚀</t>
+    <t>language</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>playlist</t>
+  </si>
+  <si>
+    <t>schedule_date</t>
+  </si>
+  <si>
+    <t>background_video_src</t>
+  </si>
+  <si>
+    <t>When Abraham Lincoln worked as a store clerk,^he once overcharged a customer by just a few cents.^That night, he walked several miles to return the money.</t>
+  </si>
+  <si>
+    <t>The act earned him the nickname 'Honest Abe',^a title that stayed with him his whole life.</t>
+  </si>
+  <si>
+    <t>Integrity isn’t built in speeches,^It’s built in actions.</t>
+  </si>
+  <si>
+    <t>Like if you value honesty!</t>
+  </si>
+  <si>
+    <t>historical mini story</t>
+  </si>
+  <si>
+    <t>background_videos\Portrait\historical_1.mp4</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>English Story World</t>
+  </si>
+  <si>
+    <t>Historical Mini Stories</t>
+  </si>
+  <si>
+    <t>In 1893, Mohandas Gandhi was thrown off a train in South Africa,^just because he was Indian and sitting in first class.</t>
+  </si>
+  <si>
+    <t>That night, shivering on a platform,^Gandhi decided he would fight injustice through non-violence.</t>
+  </si>
+  <si>
+    <t>It was the beginning of a movement that would shake the world.</t>
+  </si>
+  <si>
+    <t>One incident can awaken a revolution.</t>
+  </si>
+  <si>
+    <t>Subscribe for more powerful moments from history!</t>
+  </si>
+  <si>
+    <t>Abraham Lincoln</t>
+  </si>
+  <si>
+    <t>Mohandas Gandhi</t>
+  </si>
+  <si>
+    <t>Martin Luther King Jr.</t>
+  </si>
+  <si>
+    <t>In 1963, Dr. Martin Luther King Jr. stood before 250,000 people in Washington,^and said, ‘I have a dream.’</t>
+  </si>
+  <si>
+    <t>He dreamt of a world where people are judged by character,^not skin color.</t>
+  </si>
+  <si>
+    <t>His speech moved a nation and still echoes today.</t>
+  </si>
+  <si>
+    <t>Dreams backed by courage change the world.</t>
+  </si>
+  <si>
+    <t>Follow for powerful voices from history.</t>
+  </si>
+  <si>
+    <t>Alexander Fleming</t>
+  </si>
+  <si>
+    <t>In 1928, Alexander Fleming noticed mold killing bacteria in his lab.</t>
+  </si>
+  <si>
+    <t>That mold was penicillin – the first true antibiotic.</t>
+  </si>
+  <si>
+    <t>It would go on to save millions of lives during World War II and beyond.</t>
+  </si>
+  <si>
+    <t>A small discovery can save the world.</t>
+  </si>
+  <si>
+    <t>Like if you believe in scientific miracles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anne Frank </t>
+  </si>
+  <si>
+    <t>During WWII, a teenage girl named Anne Frank hid from the Nazis in a secret attic in Amsterdam.</t>
+  </si>
+  <si>
+    <t>She wrote about fear, hope, and humanity in her diary,^which survived even though she did not.</t>
+  </si>
+  <si>
+    <t>Her words still move hearts around the world.</t>
+  </si>
+  <si>
+    <t>Even in silence, the truth finds its voice.</t>
+  </si>
+  <si>
+    <t>Subscribe for more moving stories from history.</t>
+  </si>
+  <si>
+    <t>Mother Teresa</t>
+  </si>
+  <si>
+    <t>One day in Kolkata, Mother Teresa found a dying man lying alone on the street.</t>
+  </si>
+  <si>
+    <t>She brought him to her hospice,^held his hand,^and gave him dignity in his final hours.</t>
+  </si>
+  <si>
+    <t>She said, 'Not all of us can do great things,^but we can do small things with great love.'</t>
+  </si>
+  <si>
+    <t>Compassion is the greatest act of humanity.</t>
+  </si>
+  <si>
+    <t>Follow for stories of real heroes.</t>
+  </si>
+  <si>
+    <t>Rosa Parks</t>
+  </si>
+  <si>
+    <t>In 1955, Rosa Parks refused to give up her seat to a white passenger in Alabama.</t>
+  </si>
+  <si>
+    <t>Her quiet defiance sparked the Montgomery Bus Boycott,^a key moment in the civil rights movement.</t>
+  </si>
+  <si>
+    <t>She became a symbol of courage without violence.</t>
+  </si>
+  <si>
+    <t>Change begins with one brave 'No'.</t>
+  </si>
+  <si>
+    <t>Like if you believe in standing up by sitting down.</t>
+  </si>
+  <si>
+    <t>Winston Churchill</t>
+  </si>
+  <si>
+    <t>During WWII, when Britain stood alone against Nazi Germany,^Winston Churchill gave a speech that changed morale.</t>
+  </si>
+  <si>
+    <t>He said, 'We shall fight on the beaches,^we shall fight in the fields,^we shall never surrender.'</t>
+  </si>
+  <si>
+    <t>Those words became the backbone of British resistance.</t>
+  </si>
+  <si>
+    <t>Words have the power to win wars.</t>
+  </si>
+  <si>
+    <t>Subscribe for unforgettable moments in history.</t>
+  </si>
+  <si>
+    <t>Helen Keller</t>
+  </si>
+  <si>
+    <t>Helen Keller was blind and deaf from a young age,^but with her teacher Anne Sullivan,^she learned to communicate using touch.</t>
+  </si>
+  <si>
+    <t>She went on to graduate college,^write books,^and inspire millions around the world.</t>
+  </si>
+  <si>
+    <t>Disability is not inability.</t>
+  </si>
+  <si>
+    <t>Like if you believe in unstoppable determination.</t>
+  </si>
+  <si>
+    <t>Nikola Tesla</t>
+  </si>
+  <si>
+    <t>Nikola Tesla once lit 200 lamps from 25 miles away^using wireless electricity in the 1890s.</t>
+  </si>
+  <si>
+    <t>He envisioned smartphones, wireless power,^and renewable energy long before the world was ready.</t>
+  </si>
+  <si>
+    <t>Yet he died alone, nearly forgotten.</t>
+  </si>
+  <si>
+    <t>Sometimes, the brightest minds are ahead of their time.</t>
+  </si>
+  <si>
+    <t>Subscribe for stories of hidden brilliance.</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -142,15 +295,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,15 +332,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,20 +656,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD52"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="12" max="12" width="28.453125" customWidth="1"/>
     <col min="13" max="13" width="26.08984375" customWidth="1"/>
+    <col min="14" max="14" width="9.54296875" customWidth="1"/>
+    <col min="15" max="15" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.1796875" customWidth="1"/>
+    <col min="22" max="22" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -528,131 +712,466 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" t="s">
+        <v>85</v>
+      </c>
+      <c r="T2" t="s">
         <v>29</v>
       </c>
+      <c r="U2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" s="5">
+        <v>45783</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U3" t="s">
         <v>30</v>
       </c>
+      <c r="V3" s="5">
+        <v>45784</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>61</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" t="s">
+        <v>85</v>
+      </c>
+      <c r="T4" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" t="s">
+        <v>30</v>
+      </c>
+      <c r="V4" s="5">
+        <v>45785</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
       </c>
       <c r="L5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
         <v>26</v>
       </c>
-      <c r="M5" t="s">
-        <v>32</v>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" t="s">
+        <v>85</v>
+      </c>
+      <c r="T5" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V5" s="5">
+        <v>45786</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>69</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
       </c>
       <c r="L6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" t="s">
         <v>27</v>
       </c>
-      <c r="M6" t="s">
-        <v>33</v>
+      <c r="R6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" t="s">
+        <v>85</v>
+      </c>
+      <c r="T6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V6" s="5">
+        <v>45787</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>75</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
       </c>
       <c r="L7" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
         <v>28</v>
       </c>
-      <c r="M7" t="s">
-        <v>34</v>
+      <c r="S7" t="s">
+        <v>85</v>
+      </c>
+      <c r="T7" t="s">
+        <v>29</v>
+      </c>
+      <c r="U7" t="s">
+        <v>30</v>
+      </c>
+      <c r="V7" s="5">
+        <v>45788</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
       </c>
       <c r="L8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" t="s">
         <v>28</v>
       </c>
-      <c r="M8" t="s">
-        <v>34</v>
+      <c r="S8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T8" t="s">
+        <v>29</v>
+      </c>
+      <c r="U8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" s="5">
+        <v>45789</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
       </c>
       <c r="L9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
         <v>28</v>
       </c>
-      <c r="M9" t="s">
-        <v>34</v>
+      <c r="S9" t="s">
+        <v>85</v>
+      </c>
+      <c r="T9" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="5">
+        <v>45790</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
       </c>
       <c r="L10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
         <v>28</v>
       </c>
-      <c r="M10" t="s">
-        <v>34</v>
+      <c r="S10" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U10" t="s">
+        <v>30</v>
+      </c>
+      <c r="V10" s="5">
+        <v>45791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" t="s">
+        <v>54</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11" t="s">
+        <v>85</v>
+      </c>
+      <c r="T11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11" t="s">
+        <v>30</v>
+      </c>
+      <c r="V11" s="5">
+        <v>45792</v>
       </c>
     </row>
   </sheetData>
